--- a/backend/reports/xlsx/Tab_15_rpt_P_QuarterlyBillingRequest.xlsx
+++ b/backend/reports/xlsx/Tab_15_rpt_P_QuarterlyBillingRequest.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrien/work/gdx-agreements-tracker/backend/reports/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aspiteri/Development/Github/gdx-agreements-tracker/backend/reports/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64797E4B-DC50-EA48-8EA9-B7D7167085DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72140946-DE2E-6A40-A666-FF00C3A9D482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
+    <workbookView xWindow="5280" yWindow="4720" windowWidth="26900" windowHeight="18660" activeTab="1" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Billing Information" sheetId="1" r:id="rId1"/>
+    <sheet name="Client Information" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,19 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>{#r=d.report[i]}</t>
-  </si>
-  <si>
-    <t>{#r1=d.report[i+1]}</t>
-  </si>
-  <si>
-    <t>{#t=d.report_totals[i]}</t>
-  </si>
-  <si>
-    <t>{#date=d.date}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Project #</t>
   </si>
@@ -56,10 +45,128 @@
     <t>Project Name</t>
   </si>
   <si>
-    <t>{#fy=d.fiscal_year}</t>
-  </si>
-  <si>
-    <t>Project ________ for {$fy} as of {$date}</t>
+    <t>Fiscal Year</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Project Completed</t>
+  </si>
+  <si>
+    <t>Deliverables as Per Agreement</t>
+  </si>
+  <si>
+    <t>Amount to be billed this period</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Contact Name:</t>
+  </si>
+  <si>
+    <t>Contact Title:</t>
+  </si>
+  <si>
+    <t>Phone Number:</t>
+  </si>
+  <si>
+    <t>Email:</t>
+  </si>
+  <si>
+    <t>Journal Voucher Coding</t>
+  </si>
+  <si>
+    <t>Client #:</t>
+  </si>
+  <si>
+    <t>Responsibility #:</t>
+  </si>
+  <si>
+    <t>Service Line:</t>
+  </si>
+  <si>
+    <t>STOB:</t>
+  </si>
+  <si>
+    <t>Project Code:</t>
+  </si>
+  <si>
+    <t>Billing Date:</t>
+  </si>
+  <si>
+    <t>Project Information:</t>
+  </si>
+  <si>
+    <t>Government Digital Experience (GDX) 
+Quarterly Billing Request</t>
+  </si>
+  <si>
+    <t>Billing Information:</t>
+  </si>
+  <si>
+    <t>Client Information:</t>
+  </si>
+  <si>
+    <t>Client Information as Per Agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.reportDeliverables[i].deliverable_name}	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d.reportDeliverables[i+1]}	</t>
+  </si>
+  <si>
+    <t>{d.reportProject.project_number}</t>
+  </si>
+  <si>
+    <t>{d.reportProject.project_name}</t>
+  </si>
+  <si>
+    <t>{d.reportProject.fiscal_year}</t>
+  </si>
+  <si>
+    <t>Q{d.reportProject.quarter}</t>
+  </si>
+  <si>
+    <t>{d.reportProject.project_status.label:ifEQ('Complete'):show('✔'):elseShow('')}</t>
+  </si>
+  <si>
+    <t>{d.reportProject.contact_title}</t>
+  </si>
+  <si>
+    <t>{d.reportProject.contact_phone}</t>
+  </si>
+  <si>
+    <t>{d.reportProject.email}</t>
+  </si>
+  <si>
+    <t>{d.reportProject.client}</t>
+  </si>
+  <si>
+    <t>{d.reportProject.responsibility_centre}</t>
+  </si>
+  <si>
+    <t>{d.reportProject.service_line}</t>
+  </si>
+  <si>
+    <t>{d.reportProject.stob}</t>
+  </si>
+  <si>
+    <t>{d.reportProject.project_code}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverables[i].total_amount}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {d.reportDeliverableTotals.deliverable_totals}</t>
+  </si>
+  <si>
+    <t>{d.reportProject.full_name}</t>
+  </si>
+  <si>
+    <t>{d.reportProject.billed_date:formatD('DD-MMM-YY')}</t>
   </si>
 </sst>
 </file>
@@ -69,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,28 +189,56 @@
       <name val="BCSans-Regular"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="BCSans-Regular"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
-      <name val="BCSans-Regular"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="BCSans-Regular"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="0"/>
       <name val="BCSans-Regular"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="14"/>
+      <name val="BC Sans Regular"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="BC Sans Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="BC Sans Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="BC Sans Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="BCSans-Regular"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="BCSans-Regular"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="BCSans-Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BC Sans Regular"/>
     </font>
   </fonts>
   <fills count="4">
@@ -126,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -135,42 +270,184 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
+      <left style="thin">
+        <color theme="0"/>
       </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
+      <right style="thin">
+        <color theme="0"/>
       </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
+      <top style="thin">
+        <color theme="0"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
+      <left style="thin">
+        <color theme="0"/>
       </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
+      <right style="thin">
+        <color theme="0"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
       </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
       </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
       <top style="medium">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -180,20 +457,66 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,49 +524,142 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -273,15 +689,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>301356</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>118390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1561691</xdr:colOff>
+      <xdr:colOff>10762</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>680356</xdr:rowOff>
+      <xdr:rowOff>610209</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -310,8 +726,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2411054" cy="680356"/>
+          <a:off x="301356" y="118390"/>
+          <a:ext cx="1743559" cy="491819"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -324,9 +740,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -364,7 +780,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -470,7 +886,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -612,7 +1028,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -623,112 +1039,2003 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="C2:I2"/>
+    <sheetView zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
-    <col min="3" max="9" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="0.1640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="21">
+      <c r="A2" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="21">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="22">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="21">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1">
+      <c r="A6" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" ht="34" customHeight="1">
+      <c r="A8" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="34" customHeight="1">
+      <c r="A9" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="A10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="20" thickBot="1">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="20" thickBot="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="20" thickBot="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="20" thickBot="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" ht="19" hidden="1" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" ht="19" hidden="1" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" ht="19" hidden="1" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" ht="21" hidden="1" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="25" hidden="1" customHeight="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" ht="19" hidden="1" customHeight="1">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" ht="21" hidden="1" customHeight="1">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="1:9" ht="21" hidden="1" customHeight="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:9" ht="21" hidden="1" customHeight="1">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="1:9" ht="21" hidden="1" customHeight="1">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" ht="21" hidden="1" customHeight="1">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" hidden="1" customHeight="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="1:9" ht="24" hidden="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="1:9" ht="24" hidden="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:9" ht="24" hidden="1">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
+    </row>
+    <row r="27" spans="1:9" ht="24" hidden="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" ht="16" hidden="1" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="1:9" ht="16" hidden="1" customHeight="1">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:9" ht="24" hidden="1">
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:9" ht="24" hidden="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9" ht="24" hidden="1">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="31"/>
+    </row>
+    <row r="33" spans="1:9" ht="24" hidden="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
+    </row>
+    <row r="34" spans="1:9" ht="16" hidden="1" customHeight="1">
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" hidden="1" customHeight="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
+    </row>
+    <row r="36" spans="1:9" ht="16" hidden="1" customHeight="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="1:9" ht="24" hidden="1">
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:9" ht="24" hidden="1">
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="1:9" ht="24" hidden="1">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+    </row>
+    <row r="40" spans="1:9" ht="24" hidden="1">
+      <c r="A40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" hidden="1" customHeight="1">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
+    </row>
+    <row r="42" spans="1:9" ht="16" hidden="1" customHeight="1">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="43" spans="1:9" ht="24" hidden="1">
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="1:9" ht="24" hidden="1">
+      <c r="A44" s="32"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="31"/>
+    </row>
+    <row r="45" spans="1:9" ht="24" hidden="1">
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:9" ht="24" hidden="1">
+      <c r="A46" s="32"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="31"/>
+    </row>
+    <row r="47" spans="1:9" ht="24" hidden="1">
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31"/>
+    </row>
+    <row r="48" spans="1:9" ht="24" hidden="1">
+      <c r="A48" s="32"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="31"/>
+    </row>
+    <row r="49" spans="1:9" ht="24" hidden="1">
+      <c r="A49" s="32"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
+    </row>
+    <row r="50" spans="1:9" ht="24" hidden="1">
+      <c r="A50" s="32"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="1:9" ht="24" hidden="1">
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="31"/>
+    </row>
+    <row r="52" spans="1:9" ht="24" hidden="1">
+      <c r="A52" s="32"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="31"/>
+    </row>
+    <row r="53" spans="1:9" ht="24" hidden="1">
+      <c r="A53" s="32"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="31"/>
+    </row>
+    <row r="54" spans="1:9" ht="24" hidden="1">
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="31"/>
+    </row>
+    <row r="55" spans="1:9" ht="24" hidden="1">
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="1:9" ht="24" hidden="1">
+      <c r="A56" s="32"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="31"/>
+    </row>
+    <row r="57" spans="1:9" ht="24" hidden="1">
+      <c r="A57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="1:9" ht="24" hidden="1">
+      <c r="A58" s="32"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="31"/>
+    </row>
+    <row r="59" spans="1:9" ht="24" hidden="1">
+      <c r="A59" s="32"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="31"/>
+    </row>
+    <row r="60" spans="1:9" ht="24" hidden="1">
+      <c r="A60" s="32"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="31"/>
+    </row>
+    <row r="61" spans="1:9" ht="24" hidden="1">
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="31"/>
+    </row>
+    <row r="62" spans="1:9" ht="24" hidden="1">
+      <c r="A62" s="32"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="31"/>
+    </row>
+    <row r="63" spans="1:9" ht="24" hidden="1">
+      <c r="A63" s="32"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="31"/>
+    </row>
+    <row r="64" spans="1:9" ht="24" hidden="1">
+      <c r="A64" s="32"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="31"/>
+    </row>
+    <row r="65" spans="1:9" ht="24" hidden="1">
+      <c r="A65" s="32"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="31"/>
+    </row>
+    <row r="66" spans="1:9" ht="24" hidden="1">
+      <c r="A66" s="32"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="31"/>
+    </row>
+    <row r="67" spans="1:9" ht="24" hidden="1">
+      <c r="A67" s="32"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="31"/>
+    </row>
+    <row r="68" spans="1:9" ht="24" hidden="1">
+      <c r="A68" s="32"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="31"/>
+    </row>
+    <row r="69" spans="1:9" ht="24" hidden="1">
+      <c r="A69" s="32"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="31"/>
+    </row>
+    <row r="70" spans="1:9" ht="24" hidden="1">
+      <c r="A70" s="32"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="31"/>
+    </row>
+    <row r="71" spans="1:9" ht="24" hidden="1">
+      <c r="A71" s="32"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="31"/>
+    </row>
+    <row r="72" spans="1:9" ht="24" hidden="1">
+      <c r="A72" s="32"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="31"/>
+    </row>
+    <row r="73" spans="1:9" ht="24" hidden="1">
+      <c r="A73" s="32"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="31"/>
+    </row>
+    <row r="74" spans="1:9" ht="24" hidden="1">
+      <c r="A74" s="32"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="31"/>
+    </row>
+    <row r="75" spans="1:9" ht="24" hidden="1">
+      <c r="A75" s="32"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="31"/>
+    </row>
+    <row r="76" spans="1:9" ht="24" hidden="1">
+      <c r="A76" s="32"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="31"/>
+    </row>
+    <row r="77" spans="1:9" ht="24" hidden="1">
+      <c r="A77" s="32"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="31"/>
+    </row>
+    <row r="78" spans="1:9" ht="24" hidden="1">
+      <c r="A78" s="32"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="31"/>
+    </row>
+    <row r="79" spans="1:9" ht="24" hidden="1">
+      <c r="A79" s="32"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="31"/>
+    </row>
+    <row r="80" spans="1:9" ht="24" hidden="1">
+      <c r="A80" s="32"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="31"/>
+    </row>
+    <row r="81" spans="1:9" ht="24" hidden="1">
+      <c r="A81" s="32"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="31"/>
+    </row>
+    <row r="82" spans="1:9" ht="24" hidden="1">
+      <c r="A82" s="32"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="31"/>
+    </row>
+    <row r="83" spans="1:9" ht="24" hidden="1">
+      <c r="A83" s="32"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="31"/>
+    </row>
+    <row r="84" spans="1:9" ht="24" hidden="1">
+      <c r="A84" s="32"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="31"/>
+    </row>
+    <row r="85" spans="1:9" ht="24" hidden="1">
+      <c r="A85" s="32"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="31"/>
+    </row>
+    <row r="86" spans="1:9" ht="24" hidden="1">
+      <c r="A86" s="32"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="31"/>
+    </row>
+    <row r="87" spans="1:9" ht="24" hidden="1">
+      <c r="A87" s="32"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="31"/>
+    </row>
+    <row r="88" spans="1:9" ht="24" hidden="1">
+      <c r="A88" s="32"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="31"/>
+    </row>
+    <row r="89" spans="1:9" ht="24" hidden="1">
+      <c r="A89" s="32"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="31"/>
+    </row>
+    <row r="90" spans="1:9" ht="24" hidden="1">
+      <c r="A90" s="32"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="31"/>
+    </row>
+    <row r="91" spans="1:9" ht="24" hidden="1">
+      <c r="A91" s="32"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="31"/>
+    </row>
+    <row r="92" spans="1:9" ht="24" hidden="1">
+      <c r="A92" s="32"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="31"/>
+    </row>
+    <row r="93" spans="1:9" ht="24" hidden="1">
+      <c r="A93" s="32"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="31"/>
+    </row>
+    <row r="94" spans="1:9" ht="24" hidden="1">
+      <c r="A94" s="32"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="31"/>
+    </row>
+    <row r="95" spans="1:9" ht="24" hidden="1">
+      <c r="A95" s="32"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="31"/>
+    </row>
+    <row r="96" spans="1:9" ht="24" hidden="1">
+      <c r="A96" s="32"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="31"/>
+    </row>
+    <row r="97" spans="1:9" ht="24" hidden="1">
+      <c r="A97" s="32"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="31"/>
+    </row>
+    <row r="98" spans="1:9" ht="24" hidden="1">
+      <c r="A98" s="32"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="31"/>
+    </row>
+    <row r="99" spans="1:9" ht="24" hidden="1">
+      <c r="A99" s="32"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="31"/>
+    </row>
+    <row r="100" spans="1:9" ht="24" hidden="1">
+      <c r="A100" s="32"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="31"/>
+    </row>
+    <row r="101" spans="1:9" ht="24" hidden="1">
+      <c r="A101" s="32"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="31"/>
+    </row>
+    <row r="102" spans="1:9" ht="24" hidden="1">
+      <c r="A102" s="32"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="31"/>
+    </row>
+    <row r="103" spans="1:9" ht="24" hidden="1">
+      <c r="A103" s="32"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="31"/>
+    </row>
+    <row r="104" spans="1:9" ht="24" hidden="1">
+      <c r="A104" s="32"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="31"/>
+    </row>
+    <row r="105" spans="1:9" ht="24" hidden="1">
+      <c r="A105" s="32"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="31"/>
+    </row>
+    <row r="106" spans="1:9" ht="24" hidden="1">
+      <c r="A106" s="32"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="31"/>
+    </row>
+    <row r="107" spans="1:9" ht="24" hidden="1">
+      <c r="A107" s="32"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="31"/>
+    </row>
+    <row r="108" spans="1:9" ht="24" hidden="1">
+      <c r="A108" s="32"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="31"/>
+    </row>
+    <row r="109" spans="1:9" ht="24" hidden="1">
+      <c r="A109" s="32"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="31"/>
+    </row>
+    <row r="110" spans="1:9" ht="24" hidden="1">
+      <c r="A110" s="32"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="31"/>
+    </row>
+    <row r="111" spans="1:9" ht="24" hidden="1">
+      <c r="A111" s="32"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="31"/>
+    </row>
+    <row r="112" spans="1:9" ht="24" hidden="1">
+      <c r="A112" s="32"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="31"/>
+    </row>
+    <row r="113" spans="1:9" ht="24" hidden="1">
+      <c r="A113" s="32"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="31"/>
+    </row>
+    <row r="114" spans="1:9" ht="24" hidden="1">
+      <c r="A114" s="32"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="31"/>
+    </row>
+    <row r="115" spans="1:9" ht="24" hidden="1">
+      <c r="A115" s="32"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="31"/>
+    </row>
+    <row r="116" spans="1:9" ht="24" hidden="1">
+      <c r="A116" s="32"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="31"/>
+    </row>
+    <row r="117" spans="1:9" ht="24" hidden="1">
+      <c r="A117" s="32"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="31"/>
+    </row>
+    <row r="118" spans="1:9" ht="24" hidden="1">
+      <c r="A118" s="32"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="31"/>
+    </row>
+    <row r="119" spans="1:9" ht="24" hidden="1">
+      <c r="A119" s="32"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="31"/>
+    </row>
+    <row r="120" spans="1:9" ht="24" hidden="1">
+      <c r="A120" s="32"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="31"/>
+    </row>
+    <row r="121" spans="1:9" ht="24" hidden="1">
+      <c r="A121" s="32"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="31"/>
+    </row>
+    <row r="122" spans="1:9" ht="24" hidden="1">
+      <c r="A122" s="32"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="31"/>
+    </row>
+    <row r="123" spans="1:9" ht="24" hidden="1">
+      <c r="A123" s="32"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="31"/>
+    </row>
+    <row r="124" spans="1:9" ht="24" hidden="1">
+      <c r="A124" s="32"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="31"/>
+    </row>
+    <row r="125" spans="1:9" ht="24" hidden="1">
+      <c r="A125" s="32"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="31"/>
+    </row>
+    <row r="126" spans="1:9" ht="24" hidden="1">
+      <c r="A126" s="32"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="31"/>
+    </row>
+    <row r="127" spans="1:9" ht="24" hidden="1">
+      <c r="A127" s="32"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="31"/>
+    </row>
+    <row r="128" spans="1:9" ht="24" hidden="1">
+      <c r="A128" s="32"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="31"/>
+    </row>
+    <row r="129" spans="1:9" ht="24" hidden="1">
+      <c r="A129" s="32"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="31"/>
+    </row>
+    <row r="130" spans="1:9" ht="24" hidden="1">
+      <c r="A130" s="32"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="34"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="31"/>
+    </row>
+    <row r="131" spans="1:9" ht="24" hidden="1">
+      <c r="A131" s="32"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="34"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="30"/>
+      <c r="I131" s="31"/>
+    </row>
+    <row r="132" spans="1:9" ht="24" hidden="1">
+      <c r="A132" s="32"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="31"/>
+    </row>
+    <row r="133" spans="1:9" ht="24" hidden="1">
+      <c r="A133" s="32"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="31"/>
+    </row>
+    <row r="134" spans="1:9" ht="24" hidden="1">
+      <c r="A134" s="32"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="34"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="30"/>
+      <c r="I134" s="31"/>
+    </row>
+    <row r="135" spans="1:9" ht="24" hidden="1">
+      <c r="A135" s="32"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="31"/>
+    </row>
+    <row r="136" spans="1:9" ht="24" hidden="1">
+      <c r="A136" s="32"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="31"/>
+    </row>
+    <row r="137" spans="1:9" ht="24" hidden="1">
+      <c r="A137" s="32"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="30"/>
+      <c r="I137" s="31"/>
+    </row>
+    <row r="138" spans="1:9" ht="24" hidden="1">
+      <c r="A138" s="32"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="31"/>
+    </row>
+    <row r="139" spans="1:9" ht="24" hidden="1">
+      <c r="A139" s="32"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="31"/>
+    </row>
+    <row r="140" spans="1:9" ht="24" hidden="1">
+      <c r="A140" s="32"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="34"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="31"/>
+    </row>
+    <row r="141" spans="1:9" ht="24" hidden="1">
+      <c r="A141" s="32"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="34"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="30"/>
+      <c r="I141" s="31"/>
+    </row>
+    <row r="142" spans="1:9" ht="24" hidden="1">
+      <c r="A142" s="32"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="34"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="30"/>
+      <c r="I142" s="31"/>
+    </row>
+    <row r="143" spans="1:9" ht="24" hidden="1">
+      <c r="A143" s="32"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="34"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="30"/>
+      <c r="I143" s="31"/>
+    </row>
+    <row r="144" spans="1:9" ht="24" hidden="1">
+      <c r="A144" s="32"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="34"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="30"/>
+      <c r="I144" s="31"/>
+    </row>
+    <row r="145" spans="1:9" ht="24" hidden="1">
+      <c r="A145" s="32"/>
+      <c r="B145" s="33"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="33"/>
+      <c r="F145" s="34"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="31"/>
+    </row>
+    <row r="146" spans="1:9" ht="24" hidden="1">
+      <c r="A146" s="32"/>
+      <c r="B146" s="33"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="34"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="30"/>
+      <c r="I146" s="31"/>
+    </row>
+    <row r="147" spans="1:9" ht="24" hidden="1">
+      <c r="A147" s="32"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="33"/>
+      <c r="F147" s="34"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="31"/>
+    </row>
+    <row r="148" spans="1:9" ht="24" hidden="1">
+      <c r="A148" s="32"/>
+      <c r="B148" s="33"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="30"/>
+      <c r="I148" s="31"/>
+    </row>
+    <row r="149" spans="1:9" ht="24" hidden="1">
+      <c r="A149" s="32"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="290">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="G145:I145"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="G140:I140"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="91" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -738,4 +3045,208 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33283B5-9936-A144-95FA-2CFD2864B218}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="0.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13" style="21" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" customHeight="1" thickBot="1">
+      <c r="A1" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+    </row>
+    <row r="2" spans="1:8" ht="29" customHeight="1">
+      <c r="A2" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="1:8" ht="29" customHeight="1">
+      <c r="A3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" ht="29" customHeight="1">
+      <c r="A4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" ht="29" customHeight="1">
+      <c r="A5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="29" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" ht="29" customHeight="1">
+      <c r="A7" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="1:8" ht="29" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="29" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" ht="29" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="29" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="29" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" spans="1:8" ht="19" hidden="1">
+      <c r="E13" s="24"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>